--- a/raw_data/20200818_saline/20200818_Sensor3_Test_13.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_13.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5802694-AE9D-493E-9E5F-068D213672EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>11357.866411</v>
+        <v>11357.866411000001</v>
       </c>
       <c r="B2" s="1">
         <v>3.154963</v>
       </c>
       <c r="C2" s="1">
-        <v>1143.670000</v>
+        <v>1143.67</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.690000</v>
+        <v>-257.69</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>11368.254088</v>
@@ -496,270 +912,270 @@
         <v>3.157848</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.420000</v>
+        <v>1165.42</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.251000</v>
+        <v>-216.251</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>11378.380412</v>
       </c>
       <c r="L2" s="1">
-        <v>3.160661</v>
+        <v>3.1606610000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1192.700000</v>
+        <v>1192.7</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.633000</v>
+        <v>-149.63300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>11388.830126</v>
+        <v>11388.830126000001</v>
       </c>
       <c r="Q2" s="1">
         <v>3.163564</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.515000</v>
+        <v>-127.515</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>11399.743600</v>
+        <v>11399.7436</v>
       </c>
       <c r="V2" s="1">
         <v>3.166595</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.669000</v>
+        <v>-106.669</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>11410.189842</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.169497</v>
+        <v>3.1694969999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.592200</v>
+        <v>-89.592200000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>11421.075043</v>
+        <v>11421.075043000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.172521</v>
+        <v>3.1725210000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.012800</v>
+        <v>-85.012799999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>11431.462758</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.175406</v>
+        <v>3.1754060000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.650000</v>
+        <v>1225.6500000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.329400</v>
+        <v>-88.329400000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>11441.977448</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.178327</v>
+        <v>3.1783269999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1233.310000</v>
+        <v>1233.31</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.204000</v>
+        <v>-100.20399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>11452.999546</v>
+        <v>11452.999545999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.181389</v>
+        <v>3.1813889999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.404000</v>
+        <v>-119.404</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>11464.175898</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.184493</v>
+        <v>3.1844929999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1251.430000</v>
+        <v>1251.43</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.696000</v>
+        <v>-136.696</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>11475.818518</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.187727</v>
+        <v>3.1877270000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG2" s="1">
-        <v>-217.860000</v>
+        <v>-217.86</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>11486.851995</v>
+        <v>11486.851995000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.190792</v>
+        <v>3.1907920000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-353.759000</v>
+        <v>-353.75900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>11497.727773</v>
+        <v>11497.727773000001</v>
       </c>
       <c r="BO2" s="1">
         <v>3.193813</v>
       </c>
       <c r="BP2" s="1">
-        <v>1470.360000</v>
+        <v>1470.36</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.230000</v>
+        <v>-576.23</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>11508.047040</v>
+        <v>11508.047039999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.196680</v>
+        <v>3.1966800000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1600.520000</v>
+        <v>1600.52</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.467000</v>
+        <v>-828.46699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>11518.668369</v>
+        <v>11518.668369000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.199630</v>
+        <v>3.19963</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1750.100000</v>
+        <v>1750.1</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1103.960000</v>
+        <v>-1103.96</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>11529.647812</v>
+        <v>11529.647811999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.202680</v>
+        <v>3.20268</v>
       </c>
       <c r="CE2" s="1">
-        <v>2165.900000</v>
+        <v>2165.9</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1775.480000</v>
+        <v>-1775.48</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>11358.240855</v>
       </c>
       <c r="B3" s="1">
-        <v>3.155067</v>
+        <v>3.1550669999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.540000</v>
+        <v>1143.54</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.296000</v>
+        <v>-257.29599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>11368.623145</v>
       </c>
       <c r="G3" s="1">
-        <v>3.157951</v>
+        <v>3.1579510000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.190000</v>
+        <v>1165.19</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.946000</v>
+        <v>-215.946</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>11378.718186</v>
@@ -768,118 +1184,118 @@
         <v>3.160755</v>
       </c>
       <c r="M3" s="1">
-        <v>1192.820000</v>
+        <v>1192.82</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.560000</v>
+        <v>-149.56</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>11389.210557</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.163670</v>
+        <v>3.1636700000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.090000</v>
+        <v>1200.0899999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.506000</v>
+        <v>-127.506</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>11400.459357</v>
       </c>
       <c r="V3" s="1">
-        <v>3.166794</v>
+        <v>3.1667939999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.160000</v>
+        <v>1207.1600000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.530000</v>
+        <v>-106.53</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>11410.925408</v>
+        <v>11410.925407999999</v>
       </c>
       <c r="AA3" s="1">
         <v>3.169702</v>
       </c>
       <c r="AB3" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.499500</v>
+        <v>-89.499499999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>11421.421250</v>
+        <v>11421.421249999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.172617</v>
+        <v>3.1726169999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.071500</v>
+        <v>-85.0715</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>11431.798550</v>
+        <v>11431.79855</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.175500</v>
+        <v>3.1755</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.650000</v>
+        <v>1225.6500000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.338000</v>
+        <v>-88.337999999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>11442.350934</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.178431</v>
+        <v>3.1784309999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1233.350000</v>
+        <v>1233.3499999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>11453.706871</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.181585</v>
+        <v>3.1815850000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.393000</v>
+        <v>-119.393</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>11464.856441</v>
@@ -888,88 +1304,88 @@
         <v>3.184682</v>
       </c>
       <c r="BA3" s="1">
-        <v>1251.420000</v>
+        <v>1251.42</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.671000</v>
+        <v>-136.67099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>11476.247530</v>
+        <v>11476.247530000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.187847</v>
+        <v>3.1878470000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-217.854000</v>
+        <v>-217.85400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>11487.305339</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.190918</v>
+        <v>3.1909179999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.570000</v>
+        <v>1358.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-353.756000</v>
+        <v>-353.75599999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>11498.154830</v>
+        <v>11498.154829999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.193932</v>
+        <v>3.1939320000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1470.380000</v>
+        <v>1470.38</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.312000</v>
+        <v>-576.31200000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>11508.500384</v>
+        <v>11508.500384000001</v>
       </c>
       <c r="BT3" s="1">
         <v>3.196806</v>
       </c>
       <c r="BU3" s="1">
-        <v>1600.360000</v>
+        <v>1600.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.629000</v>
+        <v>-828.62900000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>11519.140066</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.199761</v>
+        <v>3.1997610000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1750.120000</v>
+        <v>1750.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1103.730000</v>
+        <v>-1103.73</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>11530.218707</v>
@@ -978,240 +1394,240 @@
         <v>3.202839</v>
       </c>
       <c r="CE3" s="1">
-        <v>2167.100000</v>
+        <v>2167.1</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1773.990000</v>
+        <v>-1773.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>11358.580613</v>
       </c>
       <c r="B4" s="1">
-        <v>3.155161</v>
+        <v>3.1551610000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.100000</v>
+        <v>1144.0999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.308000</v>
+        <v>-257.30799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>11368.968860</v>
+        <v>11368.968860000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.158047</v>
+        <v>3.1580469999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1164.920000</v>
+        <v>1164.92</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.558000</v>
+        <v>-215.55799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>11379.408617</v>
+        <v>11379.408616999999</v>
       </c>
       <c r="L4" s="1">
-        <v>3.160947</v>
+        <v>3.1609470000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1192.540000</v>
+        <v>1192.54</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.519000</v>
+        <v>-149.51900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>11389.905979</v>
+        <v>11389.905978999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.163863</v>
+        <v>3.1638630000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.439000</v>
+        <v>-127.43899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>11400.805069</v>
       </c>
       <c r="V4" s="1">
-        <v>3.166890</v>
+        <v>3.16689</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.549000</v>
+        <v>-106.54900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>11411.272607</v>
+        <v>11411.272607000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.169798</v>
+        <v>3.1697980000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.450600</v>
+        <v>-89.450599999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>11421.763026</v>
+        <v>11421.763026000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.172712</v>
+        <v>3.1727120000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.054500</v>
+        <v>-85.054500000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>11432.145284</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.175596</v>
+        <v>3.1755960000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.640000</v>
+        <v>1225.6400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.343200</v>
+        <v>-88.343199999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>11443.013125</v>
+        <v>11443.013124999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.178615</v>
+        <v>3.1786150000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1233.390000</v>
+        <v>1233.3900000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.144000</v>
+        <v>-100.14400000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>11454.123974</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.181701</v>
+        <v>3.1817009999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.417000</v>
+        <v>-119.417</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>11465.280524</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.184800</v>
+        <v>3.1848000000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.686000</v>
+        <v>-136.68600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>11476.610106</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.187947</v>
+        <v>3.1879469999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG4" s="1">
-        <v>-217.875000</v>
+        <v>-217.875</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>11487.707098</v>
+        <v>11487.707098000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.191030</v>
+        <v>3.19103</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL4" s="1">
-        <v>-353.742000</v>
+        <v>-353.74200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>11498.551165</v>
+        <v>11498.551165000001</v>
       </c>
       <c r="BO4" s="1">
         <v>3.194042</v>
       </c>
       <c r="BP4" s="1">
-        <v>1470.370000</v>
+        <v>1470.37</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.259000</v>
+        <v>-576.25900000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>11508.926478</v>
+        <v>11508.926477999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.196924</v>
+        <v>3.1969240000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1600.380000</v>
+        <v>1600.38</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.752000</v>
+        <v>-828.75199999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>11519.570592</v>
@@ -1220,180 +1636,180 @@
         <v>3.199881</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1103.820000</v>
+        <v>-1103.82</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>11530.756866</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.202988</v>
+        <v>3.2029879999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2164.820000</v>
+        <v>2164.8200000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1774.030000</v>
+        <v>-1774.03</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>11358.922853</v>
       </c>
       <c r="B5" s="1">
-        <v>3.155256</v>
+        <v>3.1552560000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.710000</v>
+        <v>1143.71</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.658000</v>
+        <v>-257.65800000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>11369.657803</v>
       </c>
       <c r="G5" s="1">
-        <v>3.158238</v>
+        <v>3.1582379999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.210000</v>
+        <v>-216.21</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>11379.753341</v>
       </c>
       <c r="L5" s="1">
-        <v>3.161043</v>
+        <v>3.1610429999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1192.310000</v>
+        <v>1192.31</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.678000</v>
+        <v>-149.678</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>11390.253691</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.163959</v>
+        <v>3.1639590000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.448000</v>
+        <v>-127.44799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>11401.149261</v>
       </c>
       <c r="V5" s="1">
-        <v>3.166986</v>
+        <v>3.1669860000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.200000</v>
+        <v>1207.2</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.477000</v>
+        <v>-106.477</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>11411.621791</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.169895</v>
+        <v>3.1698949999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.376800</v>
+        <v>-89.376800000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>11422.410272</v>
+        <v>11422.410271999999</v>
       </c>
       <c r="AF5" s="1">
         <v>3.172892</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.073300</v>
+        <v>-85.073300000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>11433.007300</v>
+        <v>11433.007299999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.175835</v>
+        <v>3.1758350000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.600000</v>
+        <v>1225.5999999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.341100</v>
+        <v>-88.341099999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>11443.461504</v>
+        <v>11443.461504000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.178739</v>
+        <v>3.1787390000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1233.410000</v>
+        <v>1233.4100000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.118000</v>
+        <v>-100.11799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>11454.513830</v>
+        <v>11454.51383</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.181809</v>
+        <v>3.1818089999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.438000</v>
+        <v>-119.438</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>11465.654967</v>
@@ -1402,150 +1818,150 @@
         <v>3.184904</v>
       </c>
       <c r="BA5" s="1">
-        <v>1251.420000</v>
+        <v>1251.42</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.666000</v>
+        <v>-136.666</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>11476.969741</v>
+        <v>11476.969741000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.188047</v>
+        <v>3.1880470000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG5" s="1">
-        <v>-217.872000</v>
+        <v>-217.87200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>11488.080628</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.191134</v>
+        <v>3.1911339999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.490000</v>
+        <v>1358.49</v>
       </c>
       <c r="BL5" s="1">
-        <v>-353.790000</v>
+        <v>-353.79</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>11498.974220</v>
+        <v>11498.97422</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.194160</v>
+        <v>3.1941600000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1470.370000</v>
+        <v>1470.37</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.241000</v>
+        <v>-576.24099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>11509.336638</v>
+        <v>11509.336638000001</v>
       </c>
       <c r="BT5" s="1">
         <v>3.197038</v>
       </c>
       <c r="BU5" s="1">
-        <v>1600.440000</v>
+        <v>1600.44</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.899000</v>
+        <v>-828.899</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>11519.993184</v>
+        <v>11519.993184000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.199998</v>
+        <v>3.1999979999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1750.060000</v>
+        <v>1750.06</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1103.730000</v>
+        <v>-1103.73</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>11531.298001</v>
+        <v>11531.298000999999</v>
       </c>
       <c r="CD5" s="1">
         <v>3.203138</v>
       </c>
       <c r="CE5" s="1">
-        <v>2166.870000</v>
+        <v>2166.87</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1775.820000</v>
+        <v>-1775.82</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>11359.687716</v>
       </c>
       <c r="B6" s="1">
-        <v>3.155469</v>
+        <v>3.1554690000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.630000</v>
+        <v>1143.6300000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.647000</v>
+        <v>-257.64699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>11370.004542</v>
+        <v>11370.004542000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3.158335</v>
+        <v>3.1583350000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.340000</v>
+        <v>1165.3399999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.945000</v>
+        <v>-215.94499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>11380.100536</v>
       </c>
       <c r="L6" s="1">
-        <v>3.161139</v>
+        <v>3.1611389999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1192.460000</v>
+        <v>1192.46</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.565000</v>
+        <v>-149.565</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>11390.600379</v>
@@ -1554,118 +1970,118 @@
         <v>3.164056</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.130000</v>
+        <v>1200.1300000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.438000</v>
+        <v>-127.438</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>11401.805964</v>
+        <v>11401.805963999999</v>
       </c>
       <c r="V6" s="1">
-        <v>3.167168</v>
+        <v>3.1671680000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.280000</v>
+        <v>1207.28</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.616000</v>
+        <v>-106.616</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>11412.279487</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.170078</v>
+        <v>3.1700780000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.300000</v>
+        <v>1214.3</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.482600</v>
+        <v>-89.482600000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>11422.797184</v>
+        <v>11422.797183999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.172999</v>
+        <v>3.1729989999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.989700</v>
+        <v>-84.989699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>11433.192802</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.175887</v>
+        <v>3.1758869999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.365800</v>
+        <v>-88.365799999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>11443.821572</v>
+        <v>11443.821572000001</v>
       </c>
       <c r="AP6" s="1">
         <v>3.178839</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1233.410000</v>
+        <v>1233.4100000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.129000</v>
+        <v>-100.129</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>11454.881399</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.181911</v>
+        <v>3.1819109999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.418000</v>
+        <v>-119.41800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>11466.034407</v>
+        <v>11466.034406999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.185010</v>
+        <v>3.1850100000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.674000</v>
+        <v>-136.67400000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>11477.381384</v>
@@ -1674,315 +2090,315 @@
         <v>3.188161</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG6" s="1">
-        <v>-217.856000</v>
+        <v>-217.85599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>11488.585545</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.191274</v>
+        <v>3.1912739999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL6" s="1">
-        <v>-353.758000</v>
+        <v>-353.75799999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>11499.370059</v>
+        <v>11499.370059000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.194269</v>
+        <v>3.1942689999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1470.430000</v>
+        <v>1470.43</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.272000</v>
+        <v>-576.27200000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>11509.753788</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.197154</v>
+        <v>3.1971539999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1600.170000</v>
+        <v>1600.17</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.939000</v>
+        <v>-828.93899999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>11520.414287</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.200115</v>
+        <v>3.2001149999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1749.960000</v>
+        <v>1749.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1103.810000</v>
+        <v>-1103.81</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>11531.835664</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.203288</v>
+        <v>3.2032880000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2165.750000</v>
+        <v>2165.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1773.420000</v>
+        <v>-1773.42</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>11359.944611</v>
+        <v>11359.944611000001</v>
       </c>
       <c r="B7" s="1">
-        <v>3.155540</v>
+        <v>3.1555399999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.640000</v>
+        <v>1143.6400000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.462000</v>
+        <v>-257.46199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>11370.348199</v>
       </c>
       <c r="G7" s="1">
-        <v>3.158430</v>
+        <v>3.1584300000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.300000</v>
+        <v>1165.3</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.507000</v>
+        <v>-216.50700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>11380.739880</v>
+        <v>11380.739879999999</v>
       </c>
       <c r="L7" s="1">
-        <v>3.161317</v>
+        <v>3.1613169999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1192.290000</v>
+        <v>1192.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.131000</v>
+        <v>-149.131</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>11391.253614</v>
+        <v>11391.253613999999</v>
       </c>
       <c r="Q7" s="1">
         <v>3.164237</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.531000</v>
+        <v>-127.53100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>11402.185186</v>
+        <v>11402.185186000001</v>
       </c>
       <c r="V7" s="1">
-        <v>3.167274</v>
+        <v>3.1672739999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.160000</v>
+        <v>1207.1600000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.517000</v>
+        <v>-106.517</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>11412.669342</v>
+        <v>11412.669341999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.170186</v>
+        <v>3.1701860000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.646600</v>
+        <v>-89.646600000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>11423.143368</v>
+        <v>11423.143367999999</v>
       </c>
       <c r="AF7" s="1">
         <v>3.173095</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.720000</v>
+        <v>1218.72</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.026600</v>
+        <v>-85.026600000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>11433.539539</v>
+        <v>11433.539538999999</v>
       </c>
       <c r="AK7" s="1">
         <v>3.175983</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.590000</v>
+        <v>1225.5899999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.358600</v>
+        <v>-88.358599999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>11444.185636</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.178940</v>
+        <v>3.1789399999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1233.390000</v>
+        <v>1233.3900000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.162000</v>
+        <v>-100.16200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>11455.289600</v>
+        <v>11455.2896</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.182025</v>
+        <v>3.1820249999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.407000</v>
+        <v>-119.407</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>11466.447111</v>
+        <v>11466.447110999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.185124</v>
+        <v>3.1851240000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.670000</v>
+        <v>-136.66999999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>11477.692872</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.188248</v>
+        <v>3.1882480000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG7" s="1">
-        <v>-217.847000</v>
+        <v>-217.84700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>11488.841450</v>
+        <v>11488.84145</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.191345</v>
+        <v>3.1913450000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.560000</v>
+        <v>1358.56</v>
       </c>
       <c r="BL7" s="1">
-        <v>-353.751000</v>
+        <v>-353.75099999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>11499.790636</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.194386</v>
+        <v>3.1943860000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1470.360000</v>
+        <v>1470.36</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.275000</v>
+        <v>-576.27499999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>11510.168461</v>
+        <v>11510.168460999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.197269</v>
+        <v>3.1972689999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1600.060000</v>
+        <v>1600.06</v>
       </c>
       <c r="BV7" s="1">
-        <v>-829.095000</v>
+        <v>-829.09500000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>11520.843327</v>
@@ -1991,195 +2407,195 @@
         <v>3.200234</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1103.890000</v>
+        <v>-1103.8900000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>11532.376832</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.203438</v>
+        <v>3.2034379999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2165.100000</v>
+        <v>2165.1</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1775.780000</v>
+        <v>-1775.78</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>11360.287843</v>
       </c>
       <c r="B8" s="1">
-        <v>3.155636</v>
+        <v>3.1556359999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.810000</v>
+        <v>1143.81</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.669000</v>
+        <v>-257.66899999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>11371.004597</v>
+        <v>11371.004596999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3.158612</v>
+        <v>3.1586120000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.320000</v>
+        <v>1165.32</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.504000</v>
+        <v>-215.50399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>11381.138167</v>
+        <v>11381.138166999999</v>
       </c>
       <c r="L8" s="1">
-        <v>3.161427</v>
+        <v>3.1614270000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1192.630000</v>
+        <v>1192.6300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.484000</v>
+        <v>-149.48400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>11391.635498</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.164343</v>
+        <v>3.1643430000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.525000</v>
+        <v>-127.52500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>11402.531610</v>
+        <v>11402.53161</v>
       </c>
       <c r="V8" s="1">
-        <v>3.167370</v>
+        <v>3.16737</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.110000</v>
+        <v>1207.1099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.539000</v>
+        <v>-106.539</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>11413.016045</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.170282</v>
+        <v>3.1702819999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.270000</v>
+        <v>1214.27</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.567000</v>
+        <v>-89.566999999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>11423.488575</v>
+        <v>11423.488574999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.173191</v>
+        <v>3.1731910000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.049100</v>
+        <v>-85.049099999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>11433.949698</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.176097</v>
+        <v>3.1760969999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.490000</v>
+        <v>1225.49</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.480000</v>
+        <v>-88.48</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>11444.595828</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.179054</v>
+        <v>3.1790539999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1233.380000</v>
+        <v>1233.3800000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.142000</v>
+        <v>-100.142</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>11455.605525</v>
+        <v>11455.605525000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.182113</v>
+        <v>3.1821130000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.403000</v>
+        <v>-119.40300000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>11466.754102</v>
+        <v>11466.754102000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>3.185209</v>
       </c>
       <c r="BA8" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.705000</v>
+        <v>-136.70500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>11478.053463</v>
@@ -2188,43 +2604,43 @@
         <v>3.188348</v>
       </c>
       <c r="BF8" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-217.874000</v>
+        <v>-217.874</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>11489.227544</v>
+        <v>11489.227543999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>3.191452</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL8" s="1">
-        <v>-353.799000</v>
+        <v>-353.79899999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>11500.192394</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.194498</v>
+        <v>3.1944979999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1470.370000</v>
+        <v>1470.37</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.251000</v>
+        <v>-576.25099999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>11510.591526</v>
@@ -2233,90 +2649,90 @@
         <v>3.197387</v>
       </c>
       <c r="BU8" s="1">
-        <v>1599.960000</v>
+        <v>1599.96</v>
       </c>
       <c r="BV8" s="1">
-        <v>-829.173000</v>
+        <v>-829.173</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>11521.257838</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.200349</v>
+        <v>3.2003490000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1750.090000</v>
+        <v>1750.09</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1103.930000</v>
+        <v>-1103.93</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>11532.914463</v>
+        <v>11532.914462999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.203587</v>
+        <v>3.2035870000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>2166.780000</v>
+        <v>2166.7800000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1774.380000</v>
+        <v>-1774.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>11360.971330</v>
+        <v>11360.97133</v>
       </c>
       <c r="B9" s="1">
-        <v>3.155825</v>
+        <v>3.1558250000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.650000</v>
+        <v>1143.6500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.541000</v>
+        <v>-257.541</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>11371.379413</v>
+        <v>11371.379413000001</v>
       </c>
       <c r="G9" s="1">
-        <v>3.158717</v>
+        <v>3.1587170000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.280000</v>
+        <v>1165.28</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.628000</v>
+        <v>-215.62799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>11381.483879</v>
+        <v>11381.483878999999</v>
       </c>
       <c r="L9" s="1">
-        <v>3.161523</v>
+        <v>3.1615229999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1192.810000</v>
+        <v>1192.81</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.364000</v>
+        <v>-149.364</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>11391.997609</v>
@@ -2325,58 +2741,58 @@
         <v>3.164444</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.080000</v>
+        <v>1200.08</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.437000</v>
+        <v>-127.437</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>11402.876364</v>
       </c>
       <c r="V9" s="1">
-        <v>3.167466</v>
+        <v>3.1674660000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.130000</v>
+        <v>1207.1300000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.548000</v>
+        <v>-106.548</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>11413.366220</v>
+        <v>11413.36622</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.170380</v>
+        <v>3.1703800000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.446200</v>
+        <v>-89.446200000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>11423.906703</v>
+        <v>11423.906703000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.173307</v>
+        <v>3.1733069999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.080000</v>
+        <v>-85.08</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>11434.237873</v>
@@ -2385,43 +2801,43 @@
         <v>3.176177</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.500000</v>
+        <v>1225.5</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.397500</v>
+        <v>-88.397499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>11444.903881</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.179140</v>
+        <v>3.1791399999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1233.370000</v>
+        <v>1233.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.133000</v>
+        <v>-100.133</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>11455.971108</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.182214</v>
+        <v>3.1822140000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.400000</v>
+        <v>-119.4</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>11467.110267</v>
@@ -2430,88 +2846,88 @@
         <v>3.185308</v>
       </c>
       <c r="BA9" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.699000</v>
+        <v>-136.69900000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>11478.414583</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.188448</v>
+        <v>3.1884480000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG9" s="1">
-        <v>-217.898000</v>
+        <v>-217.898</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>11489.977421</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.191660</v>
+        <v>3.1916600000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.540000</v>
+        <v>1358.54</v>
       </c>
       <c r="BL9" s="1">
-        <v>-353.800000</v>
+        <v>-353.8</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>11500.611545</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.194614</v>
+        <v>3.1946140000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1470.390000</v>
+        <v>1470.39</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.247000</v>
+        <v>-576.24699999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>11510.997772</v>
+        <v>11510.997772000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.197499</v>
+        <v>3.1974990000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1599.750000</v>
+        <v>1599.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-829.018000</v>
+        <v>-829.01800000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>11521.712814</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.200476</v>
+        <v>3.2004760000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1749.970000</v>
+        <v>1749.97</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1103.990000</v>
+        <v>-1103.99</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>11533.455598</v>
@@ -2520,45 +2936,45 @@
         <v>3.203738</v>
       </c>
       <c r="CE9" s="1">
-        <v>2164.390000</v>
+        <v>2164.39</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1773.900000</v>
+        <v>-1773.9</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>11361.313570</v>
+        <v>11361.31357</v>
       </c>
       <c r="B10" s="1">
-        <v>3.155920</v>
+        <v>3.1559200000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.900000</v>
+        <v>1143.9000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.668000</v>
+        <v>-257.66800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>11371.725093</v>
+        <v>11371.725092999999</v>
       </c>
       <c r="G10" s="1">
-        <v>3.158813</v>
+        <v>3.1588129999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.170000</v>
+        <v>1165.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.048000</v>
+        <v>-216.048</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>11381.830087</v>
@@ -2567,43 +2983,43 @@
         <v>3.161619</v>
       </c>
       <c r="M10" s="1">
-        <v>1192.380000</v>
+        <v>1192.3800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.475000</v>
+        <v>-149.47499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>11392.345304</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.164540</v>
+        <v>3.1645400000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.404000</v>
+        <v>-127.404</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>11403.293962</v>
       </c>
       <c r="V10" s="1">
-        <v>3.167582</v>
+        <v>3.1675819999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.160000</v>
+        <v>1207.1600000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.544000</v>
+        <v>-106.544</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>11413.785838</v>
@@ -2612,103 +3028,103 @@
         <v>3.170496</v>
       </c>
       <c r="AB10" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.448900</v>
+        <v>-89.448899999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>11424.185454</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.173385</v>
+        <v>3.1733850000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.012300</v>
+        <v>-85.012299999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>11434.586592</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.176274</v>
+        <v>3.1762739999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.470000</v>
+        <v>1225.47</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.519900</v>
+        <v>-88.519900000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>11445.265459</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.179240</v>
+        <v>3.1792400000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1233.380000</v>
+        <v>1233.3800000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.146000</v>
+        <v>-100.146</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>11456.337124</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.182316</v>
+        <v>3.1823160000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.428000</v>
+        <v>-119.428</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>11467.471814</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.185409</v>
+        <v>3.1854089999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.656000</v>
+        <v>-136.65600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>11479.140198</v>
+        <v>11479.140197999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.188650</v>
+        <v>3.18865</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-217.851000</v>
+        <v>-217.851</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>11490.383549</v>
@@ -2717,105 +3133,105 @@
         <v>3.191773</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.540000</v>
+        <v>1358.54</v>
       </c>
       <c r="BL10" s="1">
-        <v>-353.758000</v>
+        <v>-353.75799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>11501.006825</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.194724</v>
+        <v>3.1947239999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1470.340000</v>
+        <v>1470.34</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.264000</v>
+        <v>-576.26400000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>11511.411931</v>
+        <v>11511.411931000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.197614</v>
+        <v>3.1976140000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1599.630000</v>
+        <v>1599.63</v>
       </c>
       <c r="BV10" s="1">
-        <v>-829.004000</v>
+        <v>-829.00400000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>11522.160702</v>
+        <v>11522.160701999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.200600</v>
+        <v>3.2006000000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1103.940000</v>
+        <v>-1103.94</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>11534.300317</v>
+        <v>11534.300316999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.203972</v>
+        <v>3.2039719999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2166.930000</v>
+        <v>2166.9299999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1773.840000</v>
+        <v>-1773.84</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>11361.660273</v>
       </c>
       <c r="B11" s="1">
-        <v>3.156017</v>
+        <v>3.1560169999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.620000</v>
+        <v>1143.6199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.456000</v>
+        <v>-257.45600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>11372.069315</v>
+        <v>11372.069315000001</v>
       </c>
       <c r="G11" s="1">
-        <v>3.158908</v>
+        <v>3.1589079999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.330000</v>
+        <v>1165.33</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.569000</v>
+        <v>-216.56899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>11382.242757</v>
@@ -2824,43 +3240,43 @@
         <v>3.161734</v>
       </c>
       <c r="M11" s="1">
-        <v>1192.490000</v>
+        <v>1192.49</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.693000</v>
+        <v>-149.69300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>11392.758973</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.164655</v>
+        <v>3.1646550000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.110000</v>
+        <v>1200.1099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.405000</v>
+        <v>-127.405</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>11403.569242</v>
       </c>
       <c r="V11" s="1">
-        <v>3.167658</v>
+        <v>3.1676579999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.486000</v>
+        <v>-106.486</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>11414.095868</v>
@@ -2869,88 +3285,88 @@
         <v>3.170582</v>
       </c>
       <c r="AB11" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.328700</v>
+        <v>-89.328699999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>11424.529213</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.173480</v>
+        <v>3.1734800000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.068700</v>
+        <v>-85.068700000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>11434.937264</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.176371</v>
+        <v>3.1763710000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.625700</v>
+        <v>-88.625699999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>11445.626018</v>
+        <v>11445.626018000001</v>
       </c>
       <c r="AP11" s="1">
         <v>3.179341</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1233.280000</v>
+        <v>1233.28</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.247000</v>
+        <v>-100.247</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>11457.068723</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.182519</v>
+        <v>3.1825190000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.397000</v>
+        <v>-119.39700000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>11468.189061</v>
+        <v>11468.189060999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.185608</v>
+        <v>3.1856080000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.698000</v>
+        <v>-136.69800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>11479.517194</v>
@@ -2959,135 +3375,135 @@
         <v>3.188755</v>
       </c>
       <c r="BF11" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-217.850000</v>
+        <v>-217.85</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>11490.757532</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.191877</v>
+        <v>3.1918769999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-353.807000</v>
+        <v>-353.80700000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>11501.429416</v>
+        <v>11501.429416000001</v>
       </c>
       <c r="BO11" s="1">
         <v>3.194842</v>
       </c>
       <c r="BP11" s="1">
-        <v>1470.350000</v>
+        <v>1470.35</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.293000</v>
+        <v>-576.29300000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>11512.127130</v>
+        <v>11512.127130000001</v>
       </c>
       <c r="BT11" s="1">
         <v>3.197813</v>
       </c>
       <c r="BU11" s="1">
-        <v>1599.680000</v>
+        <v>1599.68</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.954000</v>
+        <v>-828.95399999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>11522.891075</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.200803</v>
+        <v>3.2008030000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1750.000000</v>
+        <v>1750</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1103.900000</v>
+        <v>-1103.9000000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>11534.535884</v>
+        <v>11534.535884000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.204038</v>
+        <v>3.2040380000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>2167.000000</v>
+        <v>2167</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1773.230000</v>
+        <v>-1773.23</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>11362.084391</v>
       </c>
       <c r="B12" s="1">
-        <v>3.156135</v>
+        <v>3.1561349999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.740000</v>
+        <v>1143.74</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.641000</v>
+        <v>-257.64100000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>11372.480994</v>
       </c>
       <c r="G12" s="1">
-        <v>3.159022</v>
+        <v>3.1590220000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1165.830000</v>
+        <v>1165.83</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.518000</v>
+        <v>-216.518</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>11382.520321</v>
       </c>
       <c r="L12" s="1">
-        <v>3.161811</v>
+        <v>3.1618110000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1192.310000</v>
+        <v>1192.31</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.468000</v>
+        <v>-149.46799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>11393.048633</v>
@@ -3096,103 +3512,103 @@
         <v>3.164736</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.130000</v>
+        <v>1200.1300000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.466000</v>
+        <v>-127.46599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>11403.916486</v>
       </c>
       <c r="V12" s="1">
-        <v>3.167755</v>
+        <v>3.1677550000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.621000</v>
+        <v>-106.621</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>11414.614684</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.170726</v>
+        <v>3.1707260000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.360000</v>
+        <v>1214.3599999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.499300</v>
+        <v>-89.499300000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>11424.871955</v>
+        <v>11424.871955000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.173576</v>
+        <v>3.1735760000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.034200</v>
+        <v>-85.034199999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>11435.633119</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.176565</v>
+        <v>3.1765650000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.598400</v>
+        <v>-88.598399999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>11446.352657</v>
+        <v>11446.352656999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.179542</v>
+        <v>3.1795420000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1233.340000</v>
+        <v>1233.3399999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.326000</v>
+        <v>-100.32599999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>11457.449650</v>
+        <v>11457.44965</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.182625</v>
+        <v>3.1826249999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.389000</v>
+        <v>-119.389</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>11468.548131</v>
@@ -3201,285 +3617,285 @@
         <v>3.185708</v>
       </c>
       <c r="BA12" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.679000</v>
+        <v>-136.679</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>11479.880229</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.188856</v>
+        <v>3.1888559999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-217.875000</v>
+        <v>-217.875</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>11491.440981</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.192067</v>
+        <v>3.1920670000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.530000</v>
+        <v>1358.53</v>
       </c>
       <c r="BL12" s="1">
-        <v>-353.806000</v>
+        <v>-353.80599999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>11502.132768</v>
+        <v>11502.132767999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.195037</v>
+        <v>3.1950370000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1470.370000</v>
+        <v>1470.37</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.304000</v>
+        <v>-576.30399999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>11512.241213</v>
+        <v>11512.241212999999</v>
       </c>
       <c r="BT12" s="1">
         <v>3.197845</v>
       </c>
       <c r="BU12" s="1">
-        <v>1599.480000</v>
+        <v>1599.48</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.820000</v>
+        <v>-828.82</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>11523.032669</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.200842</v>
+        <v>3.2008420000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1750.100000</v>
+        <v>1750.1</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1103.920000</v>
+        <v>-1103.92</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>11535.052252</v>
+        <v>11535.052251999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.204181</v>
+        <v>3.2041810000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>2164.820000</v>
+        <v>2164.8200000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1773.730000</v>
+        <v>-1773.73</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>11362.359176</v>
       </c>
       <c r="B13" s="1">
-        <v>3.156211</v>
+        <v>3.1562109999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.820000</v>
+        <v>1143.82</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.470000</v>
+        <v>-257.47000000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>11372.778626</v>
+        <v>11372.778625999999</v>
       </c>
       <c r="G13" s="1">
-        <v>3.159105</v>
+        <v>3.1591049999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1165.420000</v>
+        <v>1165.42</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.585000</v>
+        <v>-215.58500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>11382.866261</v>
+        <v>11382.866260999999</v>
       </c>
       <c r="L13" s="1">
-        <v>3.161907</v>
+        <v>3.1619069999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1192.610000</v>
+        <v>1192.6099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.634000</v>
+        <v>-149.63399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>11393.398281</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.164833</v>
+        <v>3.1648329999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.180000</v>
+        <v>1200.18</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.486000</v>
+        <v>-127.486</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>11404.259673</v>
       </c>
       <c r="V13" s="1">
-        <v>3.167850</v>
+        <v>3.1678500000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.100000</v>
+        <v>1207.0999999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.533000</v>
+        <v>-106.533</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>11415.099275</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.170861</v>
+        <v>3.1708609999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1214.260000</v>
+        <v>1214.26</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.359700</v>
+        <v>-89.359700000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>11425.558877</v>
+        <v>11425.558876999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.173766</v>
+        <v>3.1737660000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.026600</v>
+        <v>-85.026600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>11435.982009</v>
+        <v>11435.982008999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.176662</v>
+        <v>3.1766619999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.500000</v>
+        <v>1225.5</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.579900</v>
+        <v>-88.579899999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>11446.731104</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.179648</v>
+        <v>3.1796479999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1233.320000</v>
+        <v>1233.32</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.334000</v>
+        <v>-100.334</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>11457.814706</v>
+        <v>11457.814705999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.182726</v>
+        <v>3.1827260000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.405000</v>
+        <v>-119.405</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>11468.943939</v>
+        <v>11468.943939000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.185818</v>
+        <v>3.1858179999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.648000</v>
+        <v>-136.648</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>11480.549828</v>
+        <v>11480.549827999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.189042</v>
+        <v>3.1890420000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG13" s="1">
-        <v>-217.858000</v>
+        <v>-217.858</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>11491.549605</v>
@@ -3488,1011 +3904,1011 @@
         <v>3.192097</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.590000</v>
+        <v>1358.59</v>
       </c>
       <c r="BL13" s="1">
-        <v>-353.781000</v>
+        <v>-353.78100000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>11502.242857</v>
+        <v>11502.242856999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.195067</v>
+        <v>3.1950669999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1470.380000</v>
+        <v>1470.38</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.231000</v>
+        <v>-576.23099999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>11512.679674</v>
+        <v>11512.679674000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.197967</v>
+        <v>3.1979669999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1599.530000</v>
+        <v>1599.53</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.473000</v>
+        <v>-828.47299999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>11523.457243</v>
+        <v>11523.457243000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.200960</v>
+        <v>3.2009599999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1104.020000</v>
+        <v>-1104.02</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>11535.570548</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.204325</v>
+        <v>3.2043249999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2165.940000</v>
+        <v>2165.94</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1773.230000</v>
+        <v>-1773.23</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>11362.698934</v>
       </c>
       <c r="B14" s="1">
-        <v>3.156305</v>
+        <v>3.1563050000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.710000</v>
+        <v>1143.71</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.644000</v>
+        <v>-257.64400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>11373.125793</v>
+        <v>11373.125792999999</v>
       </c>
       <c r="G14" s="1">
-        <v>3.159202</v>
+        <v>3.1592020000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.230000</v>
+        <v>1165.23</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.280000</v>
+        <v>-216.28</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>11383.210453</v>
       </c>
       <c r="L14" s="1">
-        <v>3.162003</v>
+        <v>3.1620029999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1192.140000</v>
+        <v>1192.1400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.584000</v>
+        <v>-149.584</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>11393.748950</v>
+        <v>11393.748949999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.164930</v>
+        <v>3.16493</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.090000</v>
+        <v>1200.0899999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.510000</v>
+        <v>-127.51</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>11404.946631</v>
+        <v>11404.946631000001</v>
       </c>
       <c r="V14" s="1">
-        <v>3.168041</v>
+        <v>3.1680410000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.110000</v>
+        <v>1207.1099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.673000</v>
+        <v>-106.673</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>11415.471273</v>
+        <v>11415.471272999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.170964</v>
+        <v>3.1709640000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.666000</v>
+        <v>-89.665999999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>11425.903100</v>
+        <v>11425.9031</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.173862</v>
+        <v>3.1738620000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.038900</v>
+        <v>-85.038899999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>11436.331487</v>
+        <v>11436.331486999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.176759</v>
+        <v>3.1767590000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.613900</v>
+        <v>-88.613900000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>11447.121457</v>
+        <v>11447.121456999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.179756</v>
+        <v>3.1797559999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1233.320000</v>
+        <v>1233.32</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.335000</v>
+        <v>-100.33499999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>11458.478353</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.182911</v>
+        <v>3.1829109999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.403000</v>
+        <v>-119.40300000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>11470.038114</v>
+        <v>11470.038114000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.186122</v>
+        <v>3.1861220000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.678000</v>
+        <v>-136.678</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>11480.996724</v>
+        <v>11480.996724000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.189166</v>
+        <v>3.1891660000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1290.540000</v>
+        <v>1290.54</v>
       </c>
       <c r="BG14" s="1">
-        <v>-217.849000</v>
+        <v>-217.84899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>11491.908213</v>
+        <v>11491.908213000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.192197</v>
+        <v>3.1921970000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL14" s="1">
-        <v>-353.735000</v>
+        <v>-353.73500000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>11502.668455</v>
+        <v>11502.668455000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.195186</v>
+        <v>3.1951860000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1470.380000</v>
+        <v>1470.38</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.297000</v>
+        <v>-576.29700000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>11513.107721</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.198085</v>
+        <v>3.1980849999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1599.490000</v>
+        <v>1599.49</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.412000</v>
+        <v>-828.41200000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>11523.907610</v>
+        <v>11523.90761</v>
       </c>
       <c r="BY14" s="1">
         <v>3.201085</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1749.940000</v>
+        <v>1749.94</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1103.870000</v>
+        <v>-1103.8699999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>11536.122587</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.204478</v>
+        <v>3.2044779999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2166.570000</v>
+        <v>2166.5700000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1773.440000</v>
+        <v>-1773.44</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>11363.040639</v>
+        <v>11363.040639000001</v>
       </c>
       <c r="B15" s="1">
-        <v>3.156400</v>
+        <v>3.1564000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.710000</v>
+        <v>1143.71</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.318000</v>
+        <v>-257.31799999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>11373.471176</v>
+        <v>11373.471175999999</v>
       </c>
       <c r="G15" s="1">
-        <v>3.159298</v>
+        <v>3.1592980000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1164.780000</v>
+        <v>1164.78</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.812000</v>
+        <v>-215.81200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>11383.903587</v>
+        <v>11383.903587000001</v>
       </c>
       <c r="L15" s="1">
-        <v>3.162195</v>
+        <v>3.1621950000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1192.600000</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.435000</v>
+        <v>-149.435</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>11394.441862</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.165123</v>
+        <v>3.1651229999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.020000</v>
+        <v>1200.02</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.435000</v>
+        <v>-127.435</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>11405.288871</v>
+        <v>11405.288871000001</v>
       </c>
       <c r="V15" s="1">
-        <v>3.168136</v>
+        <v>3.1681360000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.593000</v>
+        <v>-106.593</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>11415.818441</v>
+        <v>11415.818440999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.171061</v>
+        <v>3.1710609999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.533800</v>
+        <v>-89.533799999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>11426.246828</v>
+        <v>11426.246827999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.173957</v>
+        <v>3.1739570000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.044900</v>
+        <v>-85.044899999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>11436.981246</v>
+        <v>11436.981245999999</v>
       </c>
       <c r="AK15" s="1">
         <v>3.176939</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.645000</v>
+        <v>-88.644999999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>11447.786592</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.179941</v>
+        <v>3.1799409999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1233.340000</v>
+        <v>1233.3399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.355000</v>
+        <v>-100.355</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>11458.944096</v>
+        <v>11458.944095999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.183040</v>
+        <v>3.1830400000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.392000</v>
+        <v>-119.392</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>11470.390800</v>
+        <v>11470.390799999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.186220</v>
+        <v>3.1862200000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.667000</v>
+        <v>-136.667</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>11481.359796</v>
+        <v>11481.359796000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.189267</v>
+        <v>3.1892670000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG15" s="1">
-        <v>-217.879000</v>
+        <v>-217.87899999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>11492.283686</v>
+        <v>11492.283686000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.192301</v>
+        <v>3.1923010000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.530000</v>
+        <v>1358.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-353.793000</v>
+        <v>-353.79300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>11503.065718</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.195296</v>
+        <v>3.1952959999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1470.340000</v>
+        <v>1470.34</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.274000</v>
+        <v>-576.274</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>11513.518905</v>
+        <v>11513.518905000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.198200</v>
+        <v>3.1981999999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1599.520000</v>
+        <v>1599.52</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.363000</v>
+        <v>-828.36300000000006</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>11524.336154</v>
+        <v>11524.336154000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.201204</v>
+        <v>3.2012040000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1750.070000</v>
+        <v>1750.07</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1103.880000</v>
+        <v>-1103.8800000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>11536.652346</v>
+        <v>11536.652346000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.204626</v>
+        <v>3.2046260000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2164.930000</v>
+        <v>2164.9299999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1773.680000</v>
+        <v>-1773.68</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>11363.722639</v>
       </c>
       <c r="B16" s="1">
-        <v>3.156590</v>
+        <v>3.15659</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.000000</v>
+        <v>1144</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.637000</v>
+        <v>-257.637</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>11374.157970</v>
+        <v>11374.15797</v>
       </c>
       <c r="G16" s="1">
-        <v>3.159488</v>
+        <v>3.1594880000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.250000</v>
+        <v>1165.25</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.403000</v>
+        <v>-215.40299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>11384.250067</v>
+        <v>11384.250067000001</v>
       </c>
       <c r="L16" s="1">
-        <v>3.162292</v>
+        <v>3.1622919999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1192.530000</v>
+        <v>1192.53</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.486000</v>
+        <v>-149.48599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>11394.790549</v>
+        <v>11394.790548999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.165220</v>
+        <v>3.1652200000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.420000</v>
+        <v>-127.42</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>11405.631607</v>
+        <v>11405.631606999999</v>
       </c>
       <c r="V16" s="1">
         <v>3.168231</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.578000</v>
+        <v>-106.578</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>11416.469226</v>
+        <v>11416.469225999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.171241</v>
+        <v>3.1712410000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.533500</v>
+        <v>-89.533500000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>11426.887659</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.174135</v>
+        <v>3.1741350000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.730000</v>
+        <v>1218.73</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.057900</v>
+        <v>-85.057900000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>11437.375070</v>
+        <v>11437.37507</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.177049</v>
+        <v>3.1770489999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.550000</v>
+        <v>1225.55</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.626000</v>
+        <v>-88.626000000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>11448.199759</v>
+        <v>11448.199758999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.180055</v>
+        <v>3.1800549999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1233.340000</v>
+        <v>1233.3399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.344000</v>
+        <v>-100.34399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>11459.308160</v>
+        <v>11459.30816</v>
       </c>
       <c r="AU16" s="1">
         <v>3.183141</v>
       </c>
       <c r="AV16" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.403000</v>
+        <v>-119.40300000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>11470.738002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.186316</v>
+        <v>3.1863160000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.657000</v>
+        <v>-136.65700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>11481.719396</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.189366</v>
+        <v>3.1893660000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1290.520000</v>
+        <v>1290.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-217.869000</v>
+        <v>-217.869</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>11492.700852</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.192417</v>
+        <v>3.1924169999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.540000</v>
+        <v>1358.54</v>
       </c>
       <c r="BL16" s="1">
-        <v>-353.785000</v>
+        <v>-353.78500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>11503.486822</v>
+        <v>11503.486822000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.195413</v>
+        <v>3.1954129999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1470.400000</v>
+        <v>1470.4</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.273000</v>
+        <v>-576.27300000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>11513.949433</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.198319</v>
+        <v>3.1983190000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1599.810000</v>
+        <v>1599.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.130000</v>
+        <v>-828.13</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>11524.784078</v>
+        <v>11524.784078000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.201329</v>
+        <v>3.2013289999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1750.190000</v>
+        <v>1750.19</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1103.840000</v>
+        <v>-1103.8399999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>11537.171129</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.204770</v>
+        <v>3.2047699999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2164.910000</v>
+        <v>2164.91</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1776.020000</v>
+        <v>-1776.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>11364.067855</v>
+        <v>11364.067854999999</v>
       </c>
       <c r="B17" s="1">
-        <v>3.156686</v>
+        <v>3.1566860000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.900000</v>
+        <v>1143.9000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.274000</v>
+        <v>-257.274</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>11374.502720</v>
+        <v>11374.50272</v>
       </c>
       <c r="G17" s="1">
-        <v>3.159584</v>
+        <v>3.1595840000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.210000</v>
+        <v>1165.21</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.397000</v>
+        <v>-216.39699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>11384.594819</v>
       </c>
       <c r="L17" s="1">
-        <v>3.162387</v>
+        <v>3.1623869999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.780000</v>
+        <v>1192.78</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.838000</v>
+        <v>-149.83799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>11395.141716</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.165317</v>
+        <v>3.1653169999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.130000</v>
+        <v>1200.1300000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.413000</v>
+        <v>-127.413</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>11406.289334</v>
+        <v>11406.289333999999</v>
       </c>
       <c r="V17" s="1">
-        <v>3.168414</v>
+        <v>3.1684139999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.544000</v>
+        <v>-106.544</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>11416.865496</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.171352</v>
+        <v>3.1713520000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.200000</v>
+        <v>1214.2</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.553700</v>
+        <v>-89.553700000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>11427.274538</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.174243</v>
+        <v>3.1742430000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.046700</v>
+        <v>-85.046700000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>11437.723756</v>
+        <v>11437.723755999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.177145</v>
+        <v>3.1771449999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.654900</v>
+        <v>-88.654899999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>11448.581731</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.180162</v>
+        <v>3.1801620000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1233.350000</v>
+        <v>1233.3499999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.349000</v>
+        <v>-100.349</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>11459.672224</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.183242</v>
+        <v>3.1832419999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.400000</v>
+        <v>-119.4</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>11471.147697</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.186430</v>
+        <v>3.1864300000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1251.420000</v>
+        <v>1251.42</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.663000</v>
+        <v>-136.66300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>11482.125123</v>
@@ -4501,73 +4917,73 @@
         <v>3.189479</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-217.870000</v>
+        <v>-217.87</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>11493.033636</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.192509</v>
+        <v>3.1925089999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-353.776000</v>
+        <v>-353.77600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>11503.887126</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.195524</v>
+        <v>3.1955239999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1470.400000</v>
+        <v>1470.4</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.256000</v>
+        <v>-576.25599999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>11514.375991</v>
+        <v>11514.375991000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.198438</v>
+        <v>3.1984379999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1599.900000</v>
+        <v>1599.9</v>
       </c>
       <c r="BV17" s="1">
-        <v>-828.032000</v>
+        <v>-828.03200000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>11525.178858</v>
+        <v>11525.178857999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.201439</v>
+        <v>3.2014390000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1749.920000</v>
+        <v>1749.92</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1103.940000</v>
+        <v>-1103.94</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>11537.689955</v>
@@ -4576,150 +4992,150 @@
         <v>3.204914</v>
       </c>
       <c r="CE17" s="1">
-        <v>2166.870000</v>
+        <v>2166.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1775.240000</v>
+        <v>-1775.24</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>11364.409629</v>
       </c>
       <c r="B18" s="1">
-        <v>3.156780</v>
+        <v>3.1567799999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.880000</v>
+        <v>1143.8800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.530000</v>
+        <v>-257.52999999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>11374.846416</v>
       </c>
       <c r="G18" s="1">
-        <v>3.159680</v>
+        <v>3.1596799999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.080000</v>
+        <v>1165.08</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.365000</v>
+        <v>-216.36500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>11385.243090</v>
+        <v>11385.24309</v>
       </c>
       <c r="L18" s="1">
-        <v>3.162568</v>
+        <v>3.1625679999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1192.590000</v>
+        <v>1192.5899999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.626000</v>
+        <v>-149.626</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>11395.783572</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.165495</v>
+        <v>3.1654949999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.110000</v>
+        <v>1200.1099999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.538000</v>
+        <v>-127.538</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>11406.663317</v>
       </c>
       <c r="V18" s="1">
-        <v>3.168518</v>
+        <v>3.1685180000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.523000</v>
+        <v>-106.523</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>11417.211207</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.171448</v>
+        <v>3.1714479999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.260000</v>
+        <v>1214.26</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.622600</v>
+        <v>-89.622600000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>11427.618298</v>
+        <v>11427.618297999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.174338</v>
+        <v>3.1743380000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.063800</v>
+        <v>-85.063800000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>11438.071453</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.177242</v>
+        <v>3.1772420000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.645800</v>
+        <v>-88.645799999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>11448.944749</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.180262</v>
+        <v>3.1802619999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1233.340000</v>
+        <v>1233.3399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.355000</v>
+        <v>-100.355</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>11460.085407</v>
@@ -4728,13 +5144,13 @@
         <v>3.183357</v>
       </c>
       <c r="AV18" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.390000</v>
+        <v>-119.39</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>11471.455184</v>
@@ -4743,58 +5159,58 @@
         <v>3.186515</v>
       </c>
       <c r="BA18" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.674000</v>
+        <v>-136.67400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>11482.439593</v>
+        <v>11482.439592999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.189567</v>
+        <v>3.1895669999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-217.846000</v>
+        <v>-217.846</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>11493.433908</v>
+        <v>11493.433908000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.192621</v>
+        <v>3.1926209999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.540000</v>
+        <v>1358.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-353.759000</v>
+        <v>-353.75900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>11504.298276</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.195638</v>
+        <v>3.1956380000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1470.390000</v>
+        <v>1470.39</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.315000</v>
+        <v>-576.31500000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>11514.789158</v>
@@ -4803,28 +5219,28 @@
         <v>3.198553</v>
       </c>
       <c r="BU18" s="1">
-        <v>1600.090000</v>
+        <v>1600.09</v>
       </c>
       <c r="BV18" s="1">
-        <v>-828.161000</v>
+        <v>-828.16099999999994</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>11525.784968</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.201607</v>
+        <v>3.2016070000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1750.230000</v>
+        <v>1750.23</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1103.870000</v>
+        <v>-1103.8699999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>11538.206541</v>
@@ -4833,801 +5249,801 @@
         <v>3.205057</v>
       </c>
       <c r="CE18" s="1">
-        <v>2166.330000</v>
+        <v>2166.33</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1775.740000</v>
+        <v>-1775.74</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>11365.049437</v>
       </c>
       <c r="B19" s="1">
-        <v>3.156958</v>
+        <v>3.1569579999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.580000</v>
+        <v>1143.58</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.731000</v>
+        <v>-257.73099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>11375.512047</v>
       </c>
       <c r="G19" s="1">
-        <v>3.159864</v>
+        <v>3.1598639999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.310000</v>
+        <v>1165.31</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.462000</v>
+        <v>-215.46199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>11385.630433</v>
       </c>
       <c r="L19" s="1">
-        <v>3.162675</v>
+        <v>3.1626750000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1192.580000</v>
+        <v>1192.58</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.013000</v>
+        <v>-150.01300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>11396.187816</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.165608</v>
+        <v>3.1656080000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.080000</v>
+        <v>1200.08</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.508000</v>
+        <v>-127.508</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>11407.007013</v>
       </c>
       <c r="V19" s="1">
-        <v>3.168613</v>
+        <v>3.1686130000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.581000</v>
+        <v>-106.581</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>11417.561879</v>
+        <v>11417.561879000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.171545</v>
+        <v>3.1715450000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.545600</v>
+        <v>-89.545599999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>11427.962025</v>
+        <v>11427.962025000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.174434</v>
+        <v>3.1744340000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.041100</v>
+        <v>-85.0411</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>11438.490571</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.177358</v>
+        <v>3.1773579999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.520000</v>
+        <v>1225.52</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.618300</v>
+        <v>-88.618300000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>11449.391645</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.180387</v>
+        <v>3.1803870000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1233.360000</v>
+        <v>1233.3599999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.330000</v>
+        <v>-100.33</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>11460.402336</v>
+        <v>11460.402335999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.183445</v>
+        <v>3.1834449999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.399000</v>
+        <v>-119.399</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>11471.813791</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.186615</v>
+        <v>3.1866150000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1251.380000</v>
+        <v>1251.3800000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.650000</v>
+        <v>-136.65</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>11482.801697</v>
+        <v>11482.801697000001</v>
       </c>
       <c r="BE19" s="1">
         <v>3.189667</v>
       </c>
       <c r="BF19" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG19" s="1">
-        <v>-217.880000</v>
+        <v>-217.88</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>11493.805907</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.192724</v>
+        <v>3.1927240000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.530000</v>
+        <v>1358.53</v>
       </c>
       <c r="BL19" s="1">
-        <v>-353.768000</v>
+        <v>-353.76799999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>11504.707478</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.195752</v>
+        <v>3.1957520000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1470.430000</v>
+        <v>1470.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.255000</v>
+        <v>-576.255</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>11515.216744</v>
+        <v>11515.216743999999</v>
       </c>
       <c r="BT19" s="1">
         <v>3.198671</v>
       </c>
       <c r="BU19" s="1">
-        <v>1600.150000</v>
+        <v>1600.15</v>
       </c>
       <c r="BV19" s="1">
-        <v>-828.164000</v>
+        <v>-828.16399999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>11526.061239</v>
+        <v>11526.061239000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.201684</v>
+        <v>3.2016840000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1104.050000</v>
+        <v>-1104.05</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>11538.757335</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.205210</v>
+        <v>3.2052100000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2165.010000</v>
+        <v>2165.0100000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1775.490000</v>
+        <v>-1775.49</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>11365.433340</v>
+        <v>11365.43334</v>
       </c>
       <c r="B20" s="1">
-        <v>3.157065</v>
+        <v>3.1570649999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.830000</v>
+        <v>1143.83</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.768000</v>
+        <v>-257.76799999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>11375.882101</v>
+        <v>11375.882100999999</v>
       </c>
       <c r="G20" s="1">
         <v>3.159967</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.950000</v>
+        <v>1164.95</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.768000</v>
+        <v>-215.768</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>11385.976641</v>
+        <v>11385.976640999999</v>
       </c>
       <c r="L20" s="1">
-        <v>3.162771</v>
+        <v>3.1627710000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1192.370000</v>
+        <v>1192.3699999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.409000</v>
+        <v>-149.40899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>11396.550355</v>
+        <v>11396.550354999999</v>
       </c>
       <c r="Q20" s="1">
         <v>3.165708</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.070000</v>
+        <v>1200.07</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.489000</v>
+        <v>-127.489</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>11407.352229</v>
       </c>
       <c r="V20" s="1">
-        <v>3.168709</v>
+        <v>3.1687090000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.160000</v>
+        <v>1207.1600000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.537000</v>
+        <v>-106.53700000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>11417.975575</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.171660</v>
+        <v>3.1716600000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.441300</v>
+        <v>-89.441299999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>11428.373704</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.174548</v>
+        <v>3.1745480000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.036300</v>
+        <v>-85.036299999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>11438.769324</v>
+        <v>11438.769324000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.177436</v>
+        <v>3.1774360000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.626400</v>
+        <v>-88.626400000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>11449.664954</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.180462</v>
+        <v>3.1804619999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1233.350000</v>
+        <v>1233.3499999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.343000</v>
+        <v>-100.343</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>11460.766400</v>
+        <v>11460.7664</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.183546</v>
+        <v>3.1835460000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.396000</v>
+        <v>-119.396</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>11472.172894</v>
+        <v>11472.172893999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>3.186715</v>
       </c>
       <c r="BA20" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.684000</v>
+        <v>-136.684</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>11483.163281</v>
+        <v>11483.163280999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.189768</v>
+        <v>3.1897679999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG20" s="1">
-        <v>-217.884000</v>
+        <v>-217.88399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>11494.559330</v>
+        <v>11494.55933</v>
       </c>
       <c r="BJ20" s="1">
         <v>3.192933</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.540000</v>
+        <v>1358.54</v>
       </c>
       <c r="BL20" s="1">
-        <v>-353.782000</v>
+        <v>-353.78199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>11505.111755</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.195864</v>
+        <v>3.1958639999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1470.430000</v>
+        <v>1470.43</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.248000</v>
+        <v>-576.24800000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>11515.645287</v>
+        <v>11515.645286999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.198790</v>
+        <v>3.1987899999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1600.300000</v>
+        <v>1600.3</v>
       </c>
       <c r="BV20" s="1">
-        <v>-828.276000</v>
+        <v>-828.27599999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>11526.482839</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.201801</v>
+        <v>3.2018010000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1750.120000</v>
+        <v>1750.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1103.920000</v>
+        <v>-1103.92</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>11539.287558</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.205358</v>
+        <v>3.2053579999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2167.210000</v>
+        <v>2167.21</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1775.490000</v>
+        <v>-1775.49</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>11365.780077</v>
+        <v>11365.780076999999</v>
       </c>
       <c r="B21" s="1">
-        <v>3.157161</v>
+        <v>3.1571609999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.750000</v>
+        <v>1143.75</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.466000</v>
+        <v>-257.46600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>11376.227774</v>
+        <v>11376.227774000001</v>
       </c>
       <c r="G21" s="1">
-        <v>3.160063</v>
+        <v>3.1600630000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.560000</v>
+        <v>1165.56</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.046000</v>
+        <v>-216.04599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>11386.321890</v>
+        <v>11386.321889999999</v>
       </c>
       <c r="L21" s="1">
-        <v>3.162867</v>
+        <v>3.1628669999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1192.480000</v>
+        <v>1192.48</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.523000</v>
+        <v>-149.523</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>11397.226931</v>
+        <v>11397.226930999999</v>
       </c>
       <c r="Q21" s="1">
         <v>3.165896</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.401000</v>
+        <v>-127.401</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>11407.763412</v>
       </c>
       <c r="V21" s="1">
-        <v>3.168823</v>
+        <v>3.1688230000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.545000</v>
+        <v>-106.545</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>11418.263718</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.171740</v>
+        <v>3.1717399999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.604100</v>
+        <v>-89.604100000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>11428.671769</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.174631</v>
+        <v>3.1746310000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.730000</v>
+        <v>1218.73</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.061200</v>
+        <v>-85.061199999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>11439.118012</v>
+        <v>11439.118012000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.177533</v>
+        <v>3.1775329999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.500000</v>
+        <v>1225.5</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.596900</v>
+        <v>-88.596900000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>11450.025036</v>
+        <v>11450.025035999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.180563</v>
+        <v>3.1805629999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1233.330000</v>
+        <v>1233.33</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.335000</v>
+        <v>-100.33499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>11461.129860</v>
+        <v>11461.129859999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.183647</v>
+        <v>3.1836470000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.394000</v>
+        <v>-119.39400000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>11472.892094</v>
+        <v>11472.892094000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.186914</v>
+        <v>3.1869139999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.685000</v>
+        <v>-136.685</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>11483.888896</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.189969</v>
+        <v>3.1899690000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG21" s="1">
-        <v>-217.849000</v>
+        <v>-217.84899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>11494.931360</v>
+        <v>11494.93136</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.193036</v>
+        <v>3.1930360000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL21" s="1">
-        <v>-353.841000</v>
+        <v>-353.84100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>11505.516452</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.195977</v>
+        <v>3.1959770000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1470.350000</v>
+        <v>1470.35</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.283000</v>
+        <v>-576.28300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>11516.055477</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.198904</v>
+        <v>3.1989040000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1600.410000</v>
+        <v>1600.41</v>
       </c>
       <c r="BV21" s="1">
-        <v>-828.383000</v>
+        <v>-828.38300000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>11527.204518</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.202001</v>
+        <v>3.2020010000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1750.120000</v>
+        <v>1750.12</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1103.740000</v>
+        <v>-1103.74</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>11540.109925</v>
+        <v>11540.109925000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.205586</v>
+        <v>3.2055859999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2164.870000</v>
+        <v>2164.87</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1775.170000</v>
+        <v>-1775.17</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>11366.120800</v>
+        <v>11366.120800000001</v>
       </c>
       <c r="B22" s="1">
-        <v>3.157256</v>
+        <v>3.1572559999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.850000</v>
+        <v>1143.8499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.504000</v>
+        <v>-257.50400000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>11376.569533</v>
@@ -5636,13 +6052,13 @@
         <v>3.160158</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.330000</v>
+        <v>1165.33</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.666000</v>
+        <v>-216.666</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>11386.735024</v>
@@ -5651,43 +6067,43 @@
         <v>3.162982</v>
       </c>
       <c r="M22" s="1">
-        <v>1192.770000</v>
+        <v>1192.77</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.577000</v>
+        <v>-149.577</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>11397.586499</v>
+        <v>11397.586498999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.165996</v>
+        <v>3.1659959999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.170000</v>
+        <v>1200.17</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.447000</v>
+        <v>-127.447</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>11408.060548</v>
+        <v>11408.060547999999</v>
       </c>
       <c r="V22" s="1">
-        <v>3.168906</v>
+        <v>3.1689059999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.210000</v>
+        <v>1207.21</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.513000</v>
+        <v>-106.51300000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>11418.613894</v>
@@ -5696,542 +6112,542 @@
         <v>3.171837</v>
       </c>
       <c r="AB22" s="1">
-        <v>1214.210000</v>
+        <v>1214.21</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.470600</v>
+        <v>-89.470600000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>11429.015031</v>
+        <v>11429.015031000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.174726</v>
+        <v>3.1747260000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.031200</v>
+        <v>-85.031199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>11439.468186</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.177630</v>
+        <v>3.1776300000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.520000</v>
+        <v>1225.52</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.602900</v>
+        <v>-88.602900000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>11450.387650</v>
+        <v>11450.387650000001</v>
       </c>
       <c r="AP22" s="1">
         <v>3.180663</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1233.350000</v>
+        <v>1233.3499999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.363000</v>
+        <v>-100.363</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>11461.868044</v>
+        <v>11461.868044000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.183852</v>
+        <v>3.1838519999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.387000</v>
+        <v>-119.387</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>11473.252222</v>
+        <v>11473.252221999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.187015</v>
+        <v>3.1870150000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.658000</v>
+        <v>-136.65799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>11484.275280</v>
+        <v>11484.27528</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.190076</v>
+        <v>3.1900759999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-217.857000</v>
+        <v>-217.857</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>11495.310156</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.193142</v>
+        <v>3.1931419999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.470000</v>
+        <v>1358.47</v>
       </c>
       <c r="BL22" s="1">
-        <v>-353.766000</v>
+        <v>-353.76600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>11505.967352</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.196102</v>
+        <v>3.1961020000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1470.370000</v>
+        <v>1470.37</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.295000</v>
+        <v>-576.29499999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>11516.784068</v>
+        <v>11516.784068000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.199107</v>
+        <v>3.1991070000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1600.410000</v>
+        <v>1600.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-828.679000</v>
+        <v>-828.67899999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>11527.382123</v>
+        <v>11527.382122999999</v>
       </c>
       <c r="BY22" s="1">
         <v>3.202051</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1750.130000</v>
+        <v>1750.13</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1103.830000</v>
+        <v>-1103.83</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>11540.344037</v>
+        <v>11540.344037000001</v>
       </c>
       <c r="CD22" s="1">
         <v>3.205651</v>
       </c>
       <c r="CE22" s="1">
-        <v>2164.710000</v>
+        <v>2164.71</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1774.860000</v>
+        <v>-1774.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>11366.537435</v>
       </c>
       <c r="B23" s="1">
-        <v>3.157372</v>
+        <v>3.1573720000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.920000</v>
+        <v>1143.92</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.227000</v>
+        <v>-257.22699999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>11376.986653</v>
       </c>
       <c r="G23" s="1">
-        <v>3.160274</v>
+        <v>3.1602739999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.330000</v>
+        <v>1165.33</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.453000</v>
+        <v>-215.453</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>11387.034148</v>
+        <v>11387.034148000001</v>
       </c>
       <c r="L23" s="1">
         <v>3.163065</v>
       </c>
       <c r="M23" s="1">
-        <v>1192.810000</v>
+        <v>1192.81</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.083000</v>
+        <v>-150.083</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>11397.935490</v>
+        <v>11397.93549</v>
       </c>
       <c r="Q23" s="1">
         <v>3.166093</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.512000</v>
+        <v>-127.512</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>11408.405235</v>
       </c>
       <c r="V23" s="1">
-        <v>3.169001</v>
+        <v>3.1690010000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.080000</v>
+        <v>1207.08</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.560000</v>
+        <v>-106.56</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>11418.961093</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.171934</v>
+        <v>3.1719339999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.575800</v>
+        <v>-89.575800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>11429.357767</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.174822</v>
+        <v>3.1748219999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.100900</v>
+        <v>-85.100899999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>11440.164569</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.177823</v>
+        <v>3.1778230000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.450000</v>
+        <v>1225.45</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.578000</v>
+        <v>-88.578000000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>11451.106315</v>
+        <v>11451.106315000001</v>
       </c>
       <c r="AP23" s="1">
         <v>3.180863</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1233.370000</v>
+        <v>1233.3699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.323000</v>
+        <v>-100.32299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>11462.249934</v>
+        <v>11462.249933999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.183958</v>
+        <v>3.1839580000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.381000</v>
+        <v>-119.381</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>11473.608813</v>
+        <v>11473.608813000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.187114</v>
+        <v>3.1871139999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.656000</v>
+        <v>-136.65600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>11484.634414</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.190176</v>
+        <v>3.1901760000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG23" s="1">
-        <v>-217.887000</v>
+        <v>-217.887</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>11496.008144</v>
+        <v>11496.008143999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>3.193336</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.570000</v>
+        <v>1358.57</v>
       </c>
       <c r="BL23" s="1">
-        <v>-353.772000</v>
+        <v>-353.77199999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>11506.493571</v>
+        <v>11506.493571000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.196248</v>
+        <v>3.1962480000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1470.420000</v>
+        <v>1470.42</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.245000</v>
+        <v>-576.245</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>11516.913524</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.199143</v>
+        <v>3.1991429999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1600.490000</v>
+        <v>1600.49</v>
       </c>
       <c r="BV23" s="1">
-        <v>-828.735000</v>
+        <v>-828.73500000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>11527.810133</v>
+        <v>11527.810133000001</v>
       </c>
       <c r="BY23" s="1">
         <v>3.202169</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1750.080000</v>
+        <v>1750.08</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1103.880000</v>
+        <v>-1103.8800000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>11540.862889</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.205795</v>
+        <v>3.2057950000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2166.970000</v>
+        <v>2166.9699999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1775.390000</v>
+        <v>-1775.39</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>11366.819162</v>
       </c>
       <c r="B24" s="1">
-        <v>3.157450</v>
+        <v>3.1574499999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.780000</v>
+        <v>1143.78</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.130000</v>
+        <v>-257.13</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>11377.269411</v>
+        <v>11377.269410999999</v>
       </c>
       <c r="G24" s="1">
-        <v>3.160353</v>
+        <v>3.1603530000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.510000</v>
+        <v>1165.51</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.564000</v>
+        <v>-215.56399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>11387.382303</v>
       </c>
       <c r="L24" s="1">
-        <v>3.163162</v>
+        <v>3.1631619999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1192.720000</v>
+        <v>1192.72</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.585000</v>
+        <v>-149.58500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>11398.283872</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.166190</v>
+        <v>3.1661899999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.060000</v>
+        <v>1200.06</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.514000</v>
+        <v>-127.514</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>11408.746483</v>
+        <v>11408.746483000001</v>
       </c>
       <c r="V24" s="1">
-        <v>3.169096</v>
+        <v>3.1690960000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.130000</v>
+        <v>1207.1300000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.580000</v>
+        <v>-106.58</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>11419.659460</v>
+        <v>11419.659460000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.172128</v>
+        <v>3.1721279999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.565600</v>
+        <v>-89.565600000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>11430.048204</v>
+        <v>11430.048204000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.175013</v>
+        <v>3.1750129999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.034000</v>
+        <v>-85.034000000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>11440.514261</v>
@@ -6240,28 +6656,28 @@
         <v>3.177921</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.500000</v>
+        <v>1225.5</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.609500</v>
+        <v>-88.609499999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>11451.481292</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.180967</v>
+        <v>3.1809669999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1233.330000</v>
+        <v>1233.33</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.340000</v>
+        <v>-100.34</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>11462.613997</v>
@@ -6270,13 +6686,13 @@
         <v>3.184059</v>
       </c>
       <c r="AV24" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.380000</v>
+        <v>-119.38</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>11474.270972</v>
@@ -6285,150 +6701,150 @@
         <v>3.187297</v>
       </c>
       <c r="BA24" s="1">
-        <v>1251.420000</v>
+        <v>1251.42</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.672000</v>
+        <v>-136.672</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>11485.295549</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.190360</v>
+        <v>3.1903600000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-217.828000</v>
+        <v>-217.828</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>11496.460073</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.193461</v>
+        <v>3.1934610000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.530000</v>
+        <v>1358.53</v>
       </c>
       <c r="BL24" s="1">
-        <v>-353.760000</v>
+        <v>-353.76</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>11506.737602</v>
+        <v>11506.737601999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.196316</v>
+        <v>3.1963159999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1470.400000</v>
+        <v>1470.4</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.258000</v>
+        <v>-576.25800000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>11517.329701</v>
+        <v>11517.329701000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.199258</v>
+        <v>3.1992579999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1600.320000</v>
+        <v>1600.32</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.960000</v>
+        <v>-828.96</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>11528.224821</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.202285</v>
+        <v>3.2022849999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1750.050000</v>
+        <v>1750.05</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1103.870000</v>
+        <v>-1103.8699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>11541.383651</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.205940</v>
+        <v>3.20594</v>
       </c>
       <c r="CE24" s="1">
-        <v>2165.150000</v>
+        <v>2165.15</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1775.970000</v>
+        <v>-1775.97</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>11367.162889</v>
+        <v>11367.162888999999</v>
       </c>
       <c r="B25" s="1">
-        <v>3.157545</v>
+        <v>3.1575449999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.410000</v>
+        <v>1143.4100000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.598000</v>
+        <v>-257.59800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>11377.611117</v>
       </c>
       <c r="G25" s="1">
-        <v>3.160448</v>
+        <v>3.1604480000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1164.900000</v>
+        <v>1164.9000000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.172000</v>
+        <v>-216.172</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>11387.725071</v>
+        <v>11387.725071000001</v>
       </c>
       <c r="L25" s="1">
-        <v>3.163257</v>
+        <v>3.1632570000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.740000</v>
+        <v>1192.74</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.958000</v>
+        <v>-149.958</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>11398.976784</v>
@@ -6437,43 +6853,43 @@
         <v>3.166382</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.110000</v>
+        <v>1200.1099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.466000</v>
+        <v>-127.46599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>11409.434462</v>
+        <v>11409.434461999999</v>
       </c>
       <c r="V25" s="1">
-        <v>3.169287</v>
+        <v>3.1692870000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.639000</v>
+        <v>-106.639</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>11420.008148</v>
+        <v>11420.008148000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.172224</v>
+        <v>3.1722239999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1214.220000</v>
+        <v>1214.22</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.600600</v>
+        <v>-89.6006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>11430.391894</v>
@@ -6482,422 +6898,423 @@
         <v>3.175109</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.073700</v>
+        <v>-85.073700000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>11440.860952</v>
+        <v>11440.860952000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.178017</v>
+        <v>3.1780170000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.520000</v>
+        <v>1225.52</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.636400</v>
+        <v>-88.636399999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>11452.147951</v>
+        <v>11452.147951000001</v>
       </c>
       <c r="AP25" s="1">
         <v>3.181152</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1233.360000</v>
+        <v>1233.3599999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.364000</v>
+        <v>-100.364</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>11463.283606</v>
+        <v>11463.283606000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.184245</v>
+        <v>3.1842450000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.406000</v>
+        <v>-119.40600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>11474.714923</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.187421</v>
+        <v>3.1874210000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1251.390000</v>
+        <v>1251.3900000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.671000</v>
+        <v>-136.67099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>11485.754883</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.190487</v>
+        <v>3.1904870000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.590000</v>
+        <v>1290.5899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-217.860000</v>
+        <v>-217.86</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>11496.863279</v>
+        <v>11496.863278999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.193573</v>
+        <v>3.1935730000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.560000</v>
+        <v>1358.56</v>
       </c>
       <c r="BL25" s="1">
-        <v>-353.793000</v>
+        <v>-353.79300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>11507.157218</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.196433</v>
+        <v>3.1964329999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1470.380000</v>
+        <v>1470.38</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.242000</v>
+        <v>-576.24199999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>11517.759204</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.199378</v>
+        <v>3.1993779999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1600.100000</v>
+        <v>1600.1</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.912000</v>
+        <v>-828.91200000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>11528.678661</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.202411</v>
+        <v>3.2024110000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1103.870000</v>
+        <v>-1103.8699999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>11541.934212</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.206093</v>
+        <v>3.2060930000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2164.670000</v>
+        <v>2164.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1774.820000</v>
+        <v>-1774.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>11367.503145</v>
+        <v>11367.503145000001</v>
       </c>
       <c r="B26" s="1">
-        <v>3.157640</v>
+        <v>3.1576399999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.850000</v>
+        <v>1143.8499999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.579000</v>
+        <v>-257.57900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>11378.182044</v>
+        <v>11378.182043999999</v>
       </c>
       <c r="G26" s="1">
         <v>3.160606</v>
       </c>
       <c r="H26" s="1">
-        <v>1164.690000</v>
+        <v>1164.69</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.820000</v>
+        <v>-215.82</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>11388.413523</v>
+        <v>11388.413522999999</v>
       </c>
       <c r="L26" s="1">
-        <v>3.163448</v>
+        <v>3.1634479999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1192.600000</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.636000</v>
+        <v>-149.636</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>11399.326001</v>
+        <v>11399.326000999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.166479</v>
+        <v>3.1664789999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.130000</v>
+        <v>1200.1300000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.412000</v>
+        <v>-127.41200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>11409.779153</v>
+        <v>11409.779152999999</v>
       </c>
       <c r="V26" s="1">
-        <v>3.169383</v>
+        <v>3.1693829999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.080000</v>
+        <v>1207.08</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.451000</v>
+        <v>-106.45099999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>11420.356339</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.172321</v>
+        <v>3.1723210000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.240000</v>
+        <v>1214.24</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.407400</v>
+        <v>-89.407399999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>11430.734630</v>
+        <v>11430.734630000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.175204</v>
+        <v>3.1752039999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.046400</v>
+        <v>-85.046400000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>11441.514967</v>
+        <v>11441.514966999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.178199</v>
+        <v>3.1781990000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.583500</v>
+        <v>-88.583500000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>11452.566074</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.181268</v>
+        <v>3.1812680000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1233.350000</v>
+        <v>1233.3499999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.359000</v>
+        <v>-100.35899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>11463.741402</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.184373</v>
+        <v>3.1843729999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.412000</v>
+        <v>-119.41200000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>11475.075979</v>
+        <v>11475.075978999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.187521</v>
+        <v>3.1875209999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1251.370000</v>
+        <v>1251.3699999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.660000</v>
+        <v>-136.66</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>11486.112957</v>
+        <v>11486.112956999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.190587</v>
+        <v>3.1905869999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG26" s="1">
-        <v>-217.860000</v>
+        <v>-217.86</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>11497.237726</v>
+        <v>11497.237725999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.193677</v>
+        <v>3.1936770000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.540000</v>
+        <v>1358.54</v>
       </c>
       <c r="BL26" s="1">
-        <v>-353.766000</v>
+        <v>-353.76600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>11507.571378</v>
+        <v>11507.571378000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.196548</v>
+        <v>3.1965479999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1470.420000</v>
+        <v>1470.42</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.258000</v>
+        <v>-576.25800000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>11518.186755</v>
+        <v>11518.186755000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.199496</v>
+        <v>3.1994959999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1600.010000</v>
+        <v>1600.01</v>
       </c>
       <c r="BV26" s="1">
-        <v>-829.036000</v>
+        <v>-829.03599999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>11529.126517</v>
+        <v>11529.126517000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.202535</v>
+        <v>3.2025350000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1750.060000</v>
+        <v>1750.06</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1103.870000</v>
+        <v>-1103.8699999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>11542.461986</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.206239</v>
+        <v>3.2062390000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2165.760000</v>
+        <v>2165.7600000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1775.700000</v>
+        <v>-1775.7</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>